--- a/boardgames/seafall/captains_log/glory.xlsx
+++ b/boardgames/seafall/captains_log/glory.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karhohs\Documents\GitHub\boardgame-bookie\boardgames\seafall\captains_log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kyle/Documents/GitHub/boardgame-bookie/boardgames/seafall/captains_log/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14910" windowHeight="5310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28840" windowHeight="18380"/>
   </bookViews>
   <sheets>
     <sheet name="glory" sheetId="1" r:id="rId1"/>
     <sheet name="charts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>game_number</t>
   </si>
@@ -71,6 +79,36 @@
   </si>
   <si>
     <t>joe_diff</t>
+  </si>
+  <si>
+    <t>dave_norm</t>
+  </si>
+  <si>
+    <t>kyle_norm</t>
+  </si>
+  <si>
+    <t>scott_norm</t>
+  </si>
+  <si>
+    <t>mike_norm</t>
+  </si>
+  <si>
+    <t>joe_norm</t>
+  </si>
+  <si>
+    <t>dave_rank</t>
+  </si>
+  <si>
+    <t>kyle_rank</t>
+  </si>
+  <si>
+    <t>scott_rank</t>
+  </si>
+  <si>
+    <t>mike_rank</t>
+  </si>
+  <si>
+    <t>joe_rank</t>
   </si>
 </sst>
 </file>
@@ -723,36 +761,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$C$2:$C$10</c:f>
+              <c:f>glory!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,36 +828,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$D$2:$D$10</c:f>
+              <c:f>glory!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,36 +895,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$E$2:$E$10</c:f>
+              <c:f>glory!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,36 +962,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$F$2:$F$10</c:f>
+              <c:f>glory!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,36 +1029,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$G$2:$G$10</c:f>
+              <c:f>glory!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,11 +1077,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="422616760"/>
-        <c:axId val="422629696"/>
+        <c:axId val="-1031909312"/>
+        <c:axId val="-950249776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="422616760"/>
+        <c:axId val="-1031909312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,7 +1179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422629696"/>
+        <c:crossAx val="-950249776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1134,7 +1187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="422629696"/>
+        <c:axId val="-950249776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422616760"/>
+        <c:crossAx val="-1031909312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1426,36 +1479,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$H$2:$H$10</c:f>
+              <c:f>glory!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,36 +1546,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$I$2:$I$10</c:f>
+              <c:f>glory!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82</c:v>
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1554,36 +1613,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$J$2:$J$10</c:f>
+              <c:f>glory!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98</c:v>
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,36 +1680,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$K$2:$K$10</c:f>
+              <c:f>glory!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97</c:v>
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>117.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1682,36 +1747,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$L$2:$L$10</c:f>
+              <c:f>glory!$L$2:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,11 +1795,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="435229408"/>
-        <c:axId val="435236072"/>
+        <c:axId val="-937809392"/>
+        <c:axId val="-937924864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="435229408"/>
+        <c:axId val="-937809392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,7 +1902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435236072"/>
+        <c:crossAx val="-937924864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1842,7 +1910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="435236072"/>
+        <c:axId val="-937924864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +2017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435229408"/>
+        <c:crossAx val="-937809392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2139,36 +2207,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$M$2:$M$10</c:f>
+              <c:f>glory!$M$2:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7</c:v>
+                  <c:v>-7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-10</c:v>
+                  <c:v>-10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-22.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2203,36 +2274,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$N$2:$N$10</c:f>
+              <c:f>glory!$N$2:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8</c:v>
+                  <c:v>-8.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8</c:v>
+                  <c:v>-8.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-17</c:v>
+                  <c:v>-17.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-16</c:v>
+                  <c:v>-16.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2267,36 +2341,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$O$2:$O$10</c:f>
+              <c:f>glory!$O$2:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9</c:v>
+                  <c:v>-9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11</c:v>
+                  <c:v>-11.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-17</c:v>
+                  <c:v>-17.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11</c:v>
+                  <c:v>-11.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6</c:v>
+                  <c:v>-6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,36 +2408,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$P$2:$P$10</c:f>
+              <c:f>glory!$P$2:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-6</c:v>
+                  <c:v>-6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9</c:v>
+                  <c:v>-9.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12</c:v>
+                  <c:v>-12.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-14</c:v>
+                  <c:v>-14.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9</c:v>
+                  <c:v>-9.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-15</c:v>
+                  <c:v>-15.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1</c:v>
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2395,36 +2475,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$Q$2:$Q$10</c:f>
+              <c:f>glory!$Q$2:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-7</c:v>
+                  <c:v>-7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7</c:v>
+                  <c:v>-7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-14</c:v>
+                  <c:v>-14.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-16</c:v>
+                  <c:v>-16.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11</c:v>
+                  <c:v>-11.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-14</c:v>
+                  <c:v>-14.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-13.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2440,11 +2523,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="166172920"/>
-        <c:axId val="166173312"/>
+        <c:axId val="-934993840"/>
+        <c:axId val="-934990448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166172920"/>
+        <c:axId val="-934993840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2542,7 +2625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166173312"/>
+        <c:crossAx val="-934990448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2550,7 +2633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166173312"/>
+        <c:axId val="-934990448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2662,7 +2745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166172920"/>
+        <c:crossAx val="-934993840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4775,15 +4858,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4835,8 +4918,38 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4898,8 +5011,48 @@
         <f>L2-MAX(H2:L2)</f>
         <v>-7</v>
       </c>
+      <c r="R2">
+        <f>RANK(C2,$C2:$G2)</f>
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f>RANK(D2,$C2:$G2)</f>
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:V11" si="0">RANK(E2,$C2:$G2)</f>
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W2">
+        <f>C2/$B2</f>
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2:AA11" si="1">D2/$B2</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="1"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="1"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="1"/>
+        <v>0.36363636363636365</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4942,27 +5095,67 @@
         <v>13</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M10" si="0">H3-MAX(H3:L3)</f>
+        <f t="shared" ref="M3:M10" si="2">H3-MAX(H3:L3)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N10" si="1">I3-MAX(H3:L3)</f>
+        <f t="shared" ref="N3:N10" si="3">I3-MAX(H3:L3)</f>
         <v>-3</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O10" si="2">J3-MAX(H3:L3)</f>
+        <f t="shared" ref="O3:O10" si="4">J3-MAX(H3:L3)</f>
         <v>-1</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P10" si="3">K3-MAX(H3:L3)</f>
+        <f t="shared" ref="P3:P10" si="5">K3-MAX(H3:L3)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q10" si="4">L3-MAX(H3:L3)</f>
+        <f t="shared" ref="Q3:Q10" si="6">L3-MAX(H3:L3)</f>
         <v>-4</v>
       </c>
+      <c r="R3">
+        <f t="shared" ref="R3:S11" si="7">RANK(C3,$C3:$G3)</f>
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W11" si="8">C3/$B3</f>
+        <v>0.5</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5005,27 +5198,67 @@
         <v>31</v>
       </c>
       <c r="M4">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="8"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="X4">
         <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="2"/>
-        <v>-9</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="1"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="1"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="1"/>
+        <v>1.3846153846153846</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5068,27 +5301,67 @@
         <v>33</v>
       </c>
       <c r="M5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>-11</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="6"/>
+        <v>-7</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X5">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="2"/>
-        <v>-11</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="3"/>
-        <v>-9</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5131,27 +5404,67 @@
         <v>41</v>
       </c>
       <c r="M6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>-17</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>-14</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="1"/>
-        <v>-8</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="2"/>
-        <v>-17</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="3"/>
-        <v>-12</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>0.8</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="1"/>
+        <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5194,27 +5507,67 @@
         <v>53</v>
       </c>
       <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>-11</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>-14</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>-16</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="8"/>
+        <v>0.875</v>
+      </c>
+      <c r="X7">
         <f t="shared" si="1"/>
-        <v>-8</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="2"/>
-        <v>-11</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="3"/>
-        <v>-14</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="4"/>
-        <v>-16</v>
+        <v>0.875</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5257,27 +5610,67 @@
         <v>72</v>
       </c>
       <c r="M8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="8"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="X8">
         <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="3"/>
-        <v>-9</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="4"/>
-        <v>-2</v>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="1"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="1"/>
+        <v>1.1176470588235294</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5320,27 +5713,67 @@
         <v>76</v>
       </c>
       <c r="M9">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>-17</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>-11</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X9">
         <f t="shared" si="1"/>
-        <v>-17</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="3"/>
-        <v>-15</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="4"/>
-        <v>-11</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="1"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5383,24 +5816,167 @@
         <v>84</v>
       </c>
       <c r="M10">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>-16</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>-14</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="8"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="1"/>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="1"/>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <f>SUM(C$2:C11)</f>
+        <v>95</v>
+      </c>
+      <c r="I11">
+        <f>SUM(D$2:D11)</f>
+        <v>101</v>
+      </c>
+      <c r="J11">
+        <f>SUM(E$2:E11)</f>
+        <v>107</v>
+      </c>
+      <c r="K11">
+        <f>SUM(F$2:F11)</f>
+        <v>117</v>
+      </c>
+      <c r="L11">
+        <f>SUM(G$2:G11)</f>
+        <v>104</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11" si="9">H11-MAX(H11:L11)</f>
+        <v>-22</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11" si="10">I11-MAX(H11:L11)</f>
+        <v>-16</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11" si="11">J11-MAX(H11:L11)</f>
         <v>-10</v>
       </c>
-      <c r="N10">
+      <c r="P11">
+        <f t="shared" ref="P11" si="12">K11-MAX(H11:L11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11" si="13">L11-MAX(H11:L11)</f>
+        <v>-13</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="8"/>
+        <v>0.35</v>
+      </c>
+      <c r="X11">
         <f t="shared" si="1"/>
-        <v>-16</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>0.95</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5412,11 +5988,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/boardgames/seafall/captains_log/glory.xlsx
+++ b/boardgames/seafall/captains_log/glory.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kyle/Documents/GitHub/boardgame-bookie/boardgames/seafall/captains_log/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karhohs\Documents\GitHub\boardgame-bookie\boardgames\seafall\captains_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28840" windowHeight="18380"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28845" windowHeight="18375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="glory" sheetId="1" r:id="rId1"/>
     <sheet name="charts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>game_number</t>
   </si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>joe_rank</t>
+  </si>
+  <si>
+    <t>total_glory</t>
   </si>
 </sst>
 </file>
@@ -766,34 +766,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,34 +833,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -900,34 +900,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,34 +967,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,34 +1034,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,11 +1077,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1031909312"/>
-        <c:axId val="-950249776"/>
+        <c:axId val="434273736"/>
+        <c:axId val="434274128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1031909312"/>
+        <c:axId val="434273736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-950249776"/>
+        <c:crossAx val="434274128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1187,7 +1187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-950249776"/>
+        <c:axId val="434274128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031909312"/>
+        <c:crossAx val="434273736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1484,34 +1484,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1551,34 +1551,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>101.0</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,34 +1618,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>87.0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107.0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1685,34 +1685,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97.0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>117.0</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,34 +1752,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,11 +1795,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-937809392"/>
-        <c:axId val="-937924864"/>
+        <c:axId val="434277264"/>
+        <c:axId val="434278832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-937809392"/>
+        <c:axId val="434277264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1902,7 +1902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-937924864"/>
+        <c:crossAx val="434278832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1910,7 +1910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-937924864"/>
+        <c:axId val="434278832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +2017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-937809392"/>
+        <c:crossAx val="434277264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2212,34 +2212,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.0</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-10.0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-22.0</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2279,34 +2279,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.0</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10.0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.0</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.0</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10.0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-17.0</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-16.0</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-16.0</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2346,34 +2346,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.0</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11.0</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-17.0</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.0</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.0</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-10.0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2413,34 +2413,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-6.0</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.0</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.0</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12.0</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-14.0</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.0</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-15.0</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2480,34 +2480,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-7.0</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.0</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.0</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-14.0</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-16.0</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.0</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11.0</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-14.0</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-13.0</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2523,11 +2523,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-934993840"/>
-        <c:axId val="-934990448"/>
+        <c:axId val="434279224"/>
+        <c:axId val="434280400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-934993840"/>
+        <c:axId val="434279224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2625,7 +2625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-934990448"/>
+        <c:crossAx val="434280400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2633,7 +2633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-934990448"/>
+        <c:axId val="434280400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,7 +2745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-934993840"/>
+        <c:crossAx val="434279224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2789,6 +2789,306 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sum</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Glory for All Players Each Game</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>glory!$AB$2:$AB$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="440518976"/>
+        <c:axId val="440520544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="440518976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440520544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="440520544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440518976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2946,6 +3246,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3979,6 +4319,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4587,6 +5443,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4858,15 +5746,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4948,8 +5836,11 @@
       <c r="AA1" t="s">
         <v>21</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5051,8 +5942,12 @@
         <f t="shared" si="1"/>
         <v>0.36363636363636365</v>
       </c>
+      <c r="AB2">
+        <f>SUM(C2:G2)</f>
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5154,8 +6049,12 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB11" si="9">SUM(C3:G3)</f>
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5257,8 +6156,12 @@
         <f t="shared" si="1"/>
         <v>1.3846153846153846</v>
       </c>
+      <c r="AB4">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5360,8 +6263,12 @@
         <f t="shared" si="1"/>
         <v>0.14285714285714285</v>
       </c>
+      <c r="AB5">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5463,8 +6370,12 @@
         <f t="shared" si="1"/>
         <v>0.53333333333333333</v>
       </c>
+      <c r="AB6">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5566,8 +6477,12 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
+      <c r="AB7">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5669,8 +6584,12 @@
         <f t="shared" si="1"/>
         <v>1.1176470588235294</v>
       </c>
+      <c r="AB8">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5772,8 +6691,12 @@
         <f t="shared" si="1"/>
         <v>0.22222222222222221</v>
       </c>
+      <c r="AB9">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5875,8 +6798,12 @@
         <f t="shared" si="1"/>
         <v>0.42105263157894735</v>
       </c>
+      <c r="AB10">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5919,23 +6846,23 @@
         <v>104</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11" si="9">H11-MAX(H11:L11)</f>
+        <f t="shared" ref="M11" si="10">H11-MAX(H11:L11)</f>
         <v>-22</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11" si="10">I11-MAX(H11:L11)</f>
+        <f t="shared" ref="N11" si="11">I11-MAX(H11:L11)</f>
         <v>-16</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11" si="11">J11-MAX(H11:L11)</f>
+        <f t="shared" ref="O11" si="12">J11-MAX(H11:L11)</f>
         <v>-10</v>
       </c>
       <c r="P11">
-        <f t="shared" ref="P11" si="12">K11-MAX(H11:L11)</f>
+        <f t="shared" ref="P11" si="13">K11-MAX(H11:L11)</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q11" si="13">L11-MAX(H11:L11)</f>
+        <f t="shared" ref="Q11" si="14">L11-MAX(H11:L11)</f>
         <v>-13</v>
       </c>
       <c r="R11">
@@ -5977,6 +6904,10 @@
       <c r="AA11">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="9"/>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5988,13 +6919,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="28108" divId="glory_28108" sourceType="sheet" destinationFile="C:\Users\karhohs\Documents\GitHub\boardgame-bookie\boardgames\seafall\captains_log\glory.htm"/>
+  </webPublishItems>
 </worksheet>
 </file>
--- a/boardgames/seafall/captains_log/glory.xlsx
+++ b/boardgames/seafall/captains_log/glory.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karhohs\Documents\GitHub\boardgame-bookie\boardgames\seafall\captains_log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kyle/Documents/GitHub/boardgame-bookie/boardgames/seafall/captains_log/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28845" windowHeight="18375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28840" windowHeight="18380"/>
   </bookViews>
   <sheets>
     <sheet name="glory" sheetId="1" r:id="rId1"/>
     <sheet name="charts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -766,34 +769,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,34 +836,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -900,34 +903,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,34 +970,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,34 +1037,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,11 +1080,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="434273736"/>
-        <c:axId val="434274128"/>
+        <c:axId val="-735001152"/>
+        <c:axId val="-873557504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434273736"/>
+        <c:axId val="-735001152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434274128"/>
+        <c:crossAx val="-873557504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1187,7 +1190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434274128"/>
+        <c:axId val="-873557504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434273736"/>
+        <c:crossAx val="-735001152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1484,34 +1487,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1551,34 +1554,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>101</c:v>
+                  <c:v>101.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,34 +1621,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107</c:v>
+                  <c:v>107.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1685,34 +1688,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>117</c:v>
+                  <c:v>117.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,34 +1755,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,11 +1798,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="434277264"/>
-        <c:axId val="434278832"/>
+        <c:axId val="-735033952"/>
+        <c:axId val="-769535744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434277264"/>
+        <c:axId val="-735033952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1902,7 +1905,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434278832"/>
+        <c:crossAx val="-769535744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1910,7 +1913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434278832"/>
+        <c:axId val="-769535744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +2020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434277264"/>
+        <c:crossAx val="-735033952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2212,34 +2215,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7</c:v>
+                  <c:v>-7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-10</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-22</c:v>
+                  <c:v>-22.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2279,34 +2282,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8</c:v>
+                  <c:v>-8.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8</c:v>
+                  <c:v>-8.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-17</c:v>
+                  <c:v>-17.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-16</c:v>
+                  <c:v>-16.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-16</c:v>
+                  <c:v>-16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2346,34 +2349,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9</c:v>
+                  <c:v>-9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11</c:v>
+                  <c:v>-11.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-17</c:v>
+                  <c:v>-17.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11</c:v>
+                  <c:v>-11.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6</c:v>
+                  <c:v>-6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-10</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2413,34 +2416,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-6</c:v>
+                  <c:v>-6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9</c:v>
+                  <c:v>-9.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12</c:v>
+                  <c:v>-12.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-14</c:v>
+                  <c:v>-14.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9</c:v>
+                  <c:v>-9.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-15</c:v>
+                  <c:v>-15.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2480,34 +2483,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-7</c:v>
+                  <c:v>-7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4</c:v>
+                  <c:v>-4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7</c:v>
+                  <c:v>-7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-14</c:v>
+                  <c:v>-14.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-16</c:v>
+                  <c:v>-16.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2</c:v>
+                  <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11</c:v>
+                  <c:v>-11.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-14</c:v>
+                  <c:v>-14.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-13</c:v>
+                  <c:v>-13.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2523,11 +2526,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="434279224"/>
-        <c:axId val="434280400"/>
+        <c:axId val="-798134064"/>
+        <c:axId val="-798870240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434279224"/>
+        <c:axId val="-798134064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2625,7 +2628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434280400"/>
+        <c:crossAx val="-798870240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2633,7 +2636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434280400"/>
+        <c:axId val="-798870240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,7 +2748,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434279224"/>
+        <c:crossAx val="-798134064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2929,34 +2932,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2972,11 +2975,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="440518976"/>
-        <c:axId val="440520544"/>
+        <c:axId val="-765439856"/>
+        <c:axId val="-765176896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="440518976"/>
+        <c:axId val="-765439856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3018,7 +3021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440520544"/>
+        <c:crossAx val="-765176896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3026,7 +3029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="440520544"/>
+        <c:axId val="-765176896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3077,7 +3080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440518976"/>
+        <c:crossAx val="-765439856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5746,15 +5749,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5840,7 +5843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5947,7 +5950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6054,7 +6057,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6161,7 +6164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6268,7 +6271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6375,7 +6378,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6482,7 +6485,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6589,7 +6592,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6696,7 +6699,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6803,7 +6806,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6908,6 +6911,113 @@
       <c r="AB11">
         <f t="shared" si="9"/>
         <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <f>SUM(C$2:C12)</f>
+        <v>108</v>
+      </c>
+      <c r="I12">
+        <f>SUM(D$2:D12)</f>
+        <v>110</v>
+      </c>
+      <c r="J12">
+        <f>SUM(E$2:E12)</f>
+        <v>128</v>
+      </c>
+      <c r="K12">
+        <f>SUM(F$2:F12)</f>
+        <v>131</v>
+      </c>
+      <c r="L12">
+        <f>SUM(G$2:G12)</f>
+        <v>113</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12" si="15">H12-MAX(H12:L12)</f>
+        <v>-23</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12" si="16">I12-MAX(H12:L12)</f>
+        <v>-21</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12" si="17">J12-MAX(H12:L12)</f>
+        <v>-3</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12" si="18">K12-MAX(H12:L12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ref="Q12" si="19">L12-MAX(H12:L12)</f>
+        <v>-18</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12" si="20">RANK(C12,$C12:$G12)</f>
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12" si="21">RANK(D12,$C12:$G12)</f>
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ref="T12" si="22">RANK(E12,$C12:$G12)</f>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ref="U12" si="23">RANK(F12,$C12:$G12)</f>
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ref="V12" si="24">RANK(G12,$C12:$G12)</f>
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <f t="shared" ref="W12" si="25">C12/$B12</f>
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ref="X12" si="26">D12/$B12</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" ref="Y12" si="27">E12/$B12</f>
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" ref="Z12" si="28">F12/$B12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" ref="AA12" si="29">G12/$B12</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" ref="AB12" si="30">SUM(C12:G12)</f>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6919,16 +7029,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <webPublishItems count="1">
-    <webPublishItem id="28108" divId="glory_28108" sourceType="sheet" destinationFile="C:\Users\karhohs\Documents\GitHub\boardgame-bookie\boardgames\seafall\captains_log\glory.htm"/>
-  </webPublishItems>
 </worksheet>
 </file>
--- a/boardgames/seafall/captains_log/glory.xlsx
+++ b/boardgames/seafall/captains_log/glory.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -700,7 +700,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -764,10 +763,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$C$2:$C$11</c:f>
+              <c:f>glory!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>11.0</c:v>
                 </c:pt>
@@ -797,6 +796,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,10 +836,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$D$2:$D$11</c:f>
+              <c:f>glory!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>6.0</c:v>
                 </c:pt>
@@ -864,6 +869,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,10 +909,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$E$2:$E$11</c:f>
+              <c:f>glory!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>6.0</c:v>
                 </c:pt>
@@ -931,6 +942,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,10 +982,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$F$2:$F$11</c:f>
+              <c:f>glory!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>5.0</c:v>
                 </c:pt>
@@ -998,6 +1015,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,10 +1055,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$G$2:$G$11</c:f>
+              <c:f>glory!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -1065,6 +1088,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,11 +1109,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-735001152"/>
-        <c:axId val="-873557504"/>
+        <c:axId val="1474486000"/>
+        <c:axId val="1349461904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-735001152"/>
+        <c:axId val="1474486000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1145,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1182,7 +1210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-873557504"/>
+        <c:crossAx val="1349461904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1190,7 +1218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-873557504"/>
+        <c:axId val="1349461904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,7 +1264,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1297,7 +1324,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-735001152"/>
+        <c:crossAx val="1474486000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1311,7 +1338,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1418,7 +1444,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1798,11 +1823,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-735033952"/>
-        <c:axId val="-769535744"/>
+        <c:axId val="1347277840"/>
+        <c:axId val="1458577776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-735033952"/>
+        <c:axId val="1347277840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,7 +1864,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1905,7 +1929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-769535744"/>
+        <c:crossAx val="1458577776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1913,7 +1937,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-769535744"/>
+        <c:axId val="1458577776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,7 +1983,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2020,7 +2043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-735033952"/>
+        <c:crossAx val="1347277840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2034,7 +2057,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2146,7 +2168,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2210,10 +2231,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$M$2:$M$11</c:f>
+              <c:f>glory!$M$2:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -2243,6 +2264,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-22.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-23.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-24.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2277,10 +2304,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$N$2:$N$11</c:f>
+              <c:f>glory!$N$2:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-5.0</c:v>
                 </c:pt>
@@ -2310,6 +2337,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-16.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-21.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2344,10 +2377,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$O$2:$O$11</c:f>
+              <c:f>glory!$O$2:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-5.0</c:v>
                 </c:pt>
@@ -2377,6 +2410,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2411,10 +2450,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$P$2:$P$11</c:f>
+              <c:f>glory!$P$2:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-6.0</c:v>
                 </c:pt>
@@ -2443,6 +2482,12 @@
                   <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2478,10 +2523,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>glory!$Q$2:$Q$11</c:f>
+              <c:f>glory!$Q$2:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-7.0</c:v>
                 </c:pt>
@@ -2511,6 +2556,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-13.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-18.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-19.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2526,11 +2577,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-798134064"/>
-        <c:axId val="-798870240"/>
+        <c:axId val="1452298768"/>
+        <c:axId val="1452301312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-798134064"/>
+        <c:axId val="1452298768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2562,7 +2613,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2628,7 +2678,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-798870240"/>
+        <c:crossAx val="1452301312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2636,7 +2686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-798870240"/>
+        <c:axId val="1452301312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,7 +2737,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2748,7 +2797,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-798134064"/>
+        <c:crossAx val="1452298768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2762,7 +2811,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2874,7 +2922,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2975,11 +3022,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-765439856"/>
-        <c:axId val="-765176896"/>
+        <c:axId val="1452287888"/>
+        <c:axId val="1452290720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-765439856"/>
+        <c:axId val="1452287888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3021,7 +3068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-765176896"/>
+        <c:crossAx val="1452290720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3029,7 +3076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-765176896"/>
+        <c:axId val="1452290720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,7 +3127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-765439856"/>
+        <c:crossAx val="1452287888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5749,10 +5796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6976,48 +7023,155 @@
         <v>-18</v>
       </c>
       <c r="R12">
-        <f t="shared" ref="R12" si="20">RANK(C12,$C12:$G12)</f>
+        <f t="shared" ref="R12:R13" si="20">RANK(C12,$C12:$G12)</f>
         <v>3</v>
       </c>
       <c r="S12">
-        <f t="shared" ref="S12" si="21">RANK(D12,$C12:$G12)</f>
+        <f t="shared" ref="S12:S13" si="21">RANK(D12,$C12:$G12)</f>
         <v>4</v>
       </c>
       <c r="T12">
-        <f t="shared" ref="T12" si="22">RANK(E12,$C12:$G12)</f>
+        <f t="shared" ref="T12:T13" si="22">RANK(E12,$C12:$G12)</f>
         <v>1</v>
       </c>
       <c r="U12">
-        <f t="shared" ref="U12" si="23">RANK(F12,$C12:$G12)</f>
+        <f t="shared" ref="U12:U13" si="23">RANK(F12,$C12:$G12)</f>
         <v>2</v>
       </c>
       <c r="V12">
-        <f t="shared" ref="V12" si="24">RANK(G12,$C12:$G12)</f>
+        <f t="shared" ref="V12:V13" si="24">RANK(G12,$C12:$G12)</f>
         <v>4</v>
       </c>
       <c r="W12">
-        <f t="shared" ref="W12" si="25">C12/$B12</f>
+        <f t="shared" ref="W12:W13" si="25">C12/$B12</f>
         <v>0.61904761904761907</v>
       </c>
       <c r="X12">
-        <f t="shared" ref="X12" si="26">D12/$B12</f>
+        <f t="shared" ref="X12:X13" si="26">D12/$B12</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="Y12">
-        <f t="shared" ref="Y12" si="27">E12/$B12</f>
+        <f t="shared" ref="Y12:Y13" si="27">E12/$B12</f>
         <v>1</v>
       </c>
       <c r="Z12">
-        <f t="shared" ref="Z12" si="28">F12/$B12</f>
+        <f t="shared" ref="Z12:Z13" si="28">F12/$B12</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AA12">
-        <f t="shared" ref="AA12" si="29">G12/$B12</f>
+        <f t="shared" ref="AA12:AA13" si="29">G12/$B12</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="AB12">
-        <f t="shared" ref="AB12" si="30">SUM(C12:G12)</f>
+        <f t="shared" ref="AB12:AB13" si="30">SUM(C12:G12)</f>
         <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <f>SUM(C$2:C13)</f>
+        <v>123</v>
+      </c>
+      <c r="I13">
+        <f>SUM(D$2:D13)</f>
+        <v>135</v>
+      </c>
+      <c r="J13">
+        <f>SUM(E$2:E13)</f>
+        <v>145</v>
+      </c>
+      <c r="K13">
+        <f>SUM(F$2:F13)</f>
+        <v>147</v>
+      </c>
+      <c r="L13">
+        <f>SUM(G$2:G13)</f>
+        <v>128</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13" si="31">H13-MAX(H13:L13)</f>
+        <v>-24</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13" si="32">I13-MAX(H13:L13)</f>
+        <v>-12</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13" si="33">J13-MAX(H13:L13)</f>
+        <v>-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13" si="34">K13-MAX(H13:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13" si="35">L13-MAX(H13:L13)</f>
+        <v>-19</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="25"/>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="26"/>
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="27"/>
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="28"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="29"/>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="30"/>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/boardgames/seafall/captains_log/glory.xlsx
+++ b/boardgames/seafall/captains_log/glory.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kyle/Documents/GitHub/boardgame-bookie/boardgames/seafall/captains_log/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karhohs\Documents\GitHub\boardgame-bookie\boardgames\seafall\captains_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28840" windowHeight="18380"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28845" windowHeight="18375"/>
   </bookViews>
   <sheets>
     <sheet name="glory" sheetId="1" r:id="rId1"/>
     <sheet name="charts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -768,40 +765,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,40 +841,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,40 +917,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,40 +993,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,40 +1069,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,11 +1121,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1474486000"/>
-        <c:axId val="1349461904"/>
+        <c:axId val="450758720"/>
+        <c:axId val="450759896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1474486000"/>
+        <c:axId val="450758720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1222,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1349461904"/>
+        <c:crossAx val="450759896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +1230,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1349461904"/>
+        <c:axId val="450759896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1474486000"/>
+        <c:crossAx val="450758720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1512,34 +1524,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,34 +1591,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>101.0</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,34 +1658,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>87.0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107.0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1713,34 +1725,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97.0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>117.0</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,34 +1792,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,11 +1835,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1347277840"/>
-        <c:axId val="1458577776"/>
+        <c:axId val="453547176"/>
+        <c:axId val="453549136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1347277840"/>
+        <c:axId val="453547176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1929,7 +1941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1458577776"/>
+        <c:crossAx val="453549136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1937,7 +1949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1458577776"/>
+        <c:axId val="453549136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,7 +2055,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1347277840"/>
+        <c:crossAx val="453547176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2236,40 +2248,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.0</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-10.0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-22.0</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-23.0</c:v>
+                  <c:v>-23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-24.0</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2309,40 +2321,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.0</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10.0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.0</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.0</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10.0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-17.0</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-16.0</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-16.0</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-21.0</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-12.0</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2382,40 +2394,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.0</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11.0</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-17.0</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.0</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.0</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-10.0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.0</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.0</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2455,40 +2467,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-6.0</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.0</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.0</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12.0</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-14.0</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.0</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-15.0</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2528,40 +2540,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-7.0</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.0</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.0</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-14.0</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-16.0</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.0</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11.0</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-14.0</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-13.0</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-18.0</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-19.0</c:v>
+                  <c:v>-19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2577,11 +2589,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1452298768"/>
-        <c:axId val="1452301312"/>
+        <c:axId val="453551096"/>
+        <c:axId val="453549528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1452298768"/>
+        <c:axId val="453551096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2678,7 +2690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1452301312"/>
+        <c:crossAx val="453549528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2686,7 +2698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1452301312"/>
+        <c:axId val="453549528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2797,7 +2809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1452298768"/>
+        <c:crossAx val="453551096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2979,34 +2991,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3022,11 +3034,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1452287888"/>
-        <c:axId val="1452290720"/>
+        <c:axId val="453549920"/>
+        <c:axId val="453551880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1452287888"/>
+        <c:axId val="453549920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3068,7 +3080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1452290720"/>
+        <c:crossAx val="453551880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3076,7 +3088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1452290720"/>
+        <c:axId val="453551880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3127,7 +3139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1452287888"/>
+        <c:crossAx val="453549920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5796,15 +5808,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5890,7 +5902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5997,7 +6009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6104,7 +6116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6211,7 +6223,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6318,7 +6330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6425,7 +6437,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6532,7 +6544,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6639,7 +6651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6746,7 +6758,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6853,7 +6865,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6960,7 +6972,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7067,7 +7079,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7172,6 +7184,113 @@
       <c r="AB13">
         <f t="shared" si="30"/>
         <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <f>SUM(C$2:C14)</f>
+        <v>146</v>
+      </c>
+      <c r="I14">
+        <f>SUM(D$2:D14)</f>
+        <v>161</v>
+      </c>
+      <c r="J14">
+        <f>SUM(E$2:E14)</f>
+        <v>156</v>
+      </c>
+      <c r="K14">
+        <f>SUM(F$2:F14)</f>
+        <v>161</v>
+      </c>
+      <c r="L14">
+        <f>SUM(G$2:G14)</f>
+        <v>141</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14" si="36">H14-MAX(H14:L14)</f>
+        <v>-15</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14" si="37">I14-MAX(H14:L14)</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14" si="38">J14-MAX(H14:L14)</f>
+        <v>-5</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14" si="39">K14-MAX(H14:L14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14" si="40">L14-MAX(H14:L14)</f>
+        <v>-20</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ref="R14" si="41">RANK(C14,$C14:$G14)</f>
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ref="S14" si="42">RANK(D14,$C14:$G14)</f>
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ref="T14" si="43">RANK(E14,$C14:$G14)</f>
+        <v>5</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ref="U14" si="44">RANK(F14,$C14:$G14)</f>
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ref="V14" si="45">RANK(G14,$C14:$G14)</f>
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14" si="46">C14/$B14</f>
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14" si="47">D14/$B14</f>
+        <v>1.1304347826086956</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" ref="Y14" si="48">E14/$B14</f>
+        <v>0.47826086956521741</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" ref="Z14" si="49">F14/$B14</f>
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" ref="AA14" si="50">G14/$B14</f>
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" ref="AB14" si="51">SUM(C14:G14)</f>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -7187,7 +7306,7 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
